--- a/GestionDeProjet/Commandes/Commande_n_3.xlsx
+++ b/GestionDeProjet/Commandes/Commande_n_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Surveillance_V3\GestionDeProjet\Commandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43542F30-C165-4AC7-A20F-D9346C0EBF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECEF8B3-C204-49C5-95A7-2FA2C5F52000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commande_3" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Objet</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>Cable connection carte interface holo32</t>
+  </si>
+  <si>
+    <t>Dongle Wifi</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Adaptateur-150Mb-Wireless-Ralink-RT5370/dp/B00BXWU7X4/ref=sr_1_5?adgrpid=58755617880&amp;gclid=CjwKCAjw14uVBhBEEiwAaufYxzBk8_pqM9Uq8P9APV9mTCCfRphUTFFO21MBfdBEJLQadrKfnQ9CiRoCOYUQAvD_BwE&amp;hvadid=498955668675&amp;hvdev=c&amp;hvlocphy=9055222&amp;hvnetw=g&amp;hvqmt=e&amp;hvrand=10009914351250771964&amp;hvtargid=kwd-492257375912&amp;hydadcr=232_2365466&amp;keywords=ralink+rt5370&amp;qid=1654867022&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>Adaptateur USB WiFi N 150Mb Nano Mini Wireless WiFi Ralink RT5370 Micro Chip</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/Mikroe/MIKROE-2462?qs=AQlKX63v8RuUF9Nneo3nag%3D%3D</t>
+  </si>
+  <si>
+    <t>MIKROE-2462</t>
   </si>
 </sst>
 </file>
@@ -362,7 +380,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -471,11 +489,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -759,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I971"/>
+  <dimension ref="A1:I974"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,14 +850,14 @@
         <v>8.0299999999999994</v>
       </c>
       <c r="E3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="36">
         <f>D3*E3</f>
-        <v>8.0299999999999994</v>
+        <v>16.059999999999999</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="45" t="s">
         <v>17</v>
       </c>
     </row>
@@ -865,63 +889,103 @@
       </c>
       <c r="I4" s="38"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="15" t="s">
+    <row r="5" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="39">
+        <v>11.4</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="24">
+        <f>D5*E5</f>
+        <v>22.8</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="39">
+        <v>15.99</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="24">
+        <f>D7*E7</f>
+        <v>15.99</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F8" s="28">
         <f>SUM(F3:F4)</f>
         <v>20</v>
       </c>
-      <c r="G5" s="25">
-        <f>SUM(G3:G4)</f>
-        <v>37.71</v>
+      <c r="G8" s="25">
+        <f>SUM(G3:G7)</f>
+        <v>84.529999999999987</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="16">
-        <f>F5+G5</f>
-        <v>57.71</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="H9" s="3"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="H10" s="3"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
+      <c r="E11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="16">
+        <f>F8+G8</f>
+        <v>104.52999999999999</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -936,9 +1000,6 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -946,9 +1007,6 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -956,9 +1014,6 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2752,34 +2807,34 @@
       <c r="H194" s="3"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="19"/>
-      <c r="F195" s="19"/>
-      <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="18"/>
+      <c r="F195" s="18"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="19"/>
-      <c r="F196" s="19"/>
-      <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="18"/>
+      <c r="F196" s="18"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="19"/>
-      <c r="F197" s="19"/>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="18"/>
+      <c r="F197" s="18"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
@@ -2872,57 +2927,78 @@
       <c r="H206" s="1"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
       <c r="D207" s="5"/>
+      <c r="E207" s="19"/>
+      <c r="F207" s="19"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
       <c r="D208" s="5"/>
-    </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="19"/>
+      <c r="F208" s="19"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
       <c r="D209" s="5"/>
-    </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="19"/>
+      <c r="F209" s="19"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D219" s="5"/>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D220" s="5"/>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D222" s="5"/>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D224" s="5"/>
     </row>
     <row r="225" spans="4:4" x14ac:dyDescent="0.25">
@@ -5166,9 +5242,24 @@
     <row r="971" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D971" s="5"/>
     </row>
+    <row r="972" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D972" s="5"/>
+    </row>
+    <row r="973" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D973" s="5"/>
+    </row>
+    <row r="974" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D974" s="5"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H7" r:id="rId1" display="https://www.amazon.fr/Adaptateur-150Mb-Wireless-Ralink-RT5370/dp/B00BXWU7X4/ref=sr_1_5?adgrpid=58755617880&amp;gclid=CjwKCAjw14uVBhBEEiwAaufYxzBk8_pqM9Uq8P9APV9mTCCfRphUTFFO21MBfdBEJLQadrKfnQ9CiRoCOYUQAvD_BwE&amp;hvadid=498955668675&amp;hvdev=c&amp;hvlocphy=9055222&amp;hvnetw=g&amp;hvqmt=e&amp;hvrand=10009914351250771964&amp;hvtargid=kwd-492257375912&amp;hydadcr=232_2365466&amp;keywords=ralink+rt5370&amp;qid=1654867022&amp;sr=8-5" xr:uid="{9A46E05E-DD15-4ACD-9AEC-0C14209680B8}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{224A2836-A393-48B8-AF5E-F62635973408}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{B939FC59-B691-4461-9B96-72533C317F66}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{551E8818-59CE-4A68-B9A2-919317635C2C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -5238,7 +5329,7 @@
       <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42">
+      <c r="A3" s="43">
         <v>2</v>
       </c>
       <c r="B3" s="11"/>
@@ -5265,7 +5356,7 @@
       <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
         <v>19</v>

--- a/GestionDeProjet/Commandes/Commande_n_3.xlsx
+++ b/GestionDeProjet/Commandes/Commande_n_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Surveillance_V3\GestionDeProjet\Commandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECEF8B3-C204-49C5-95A7-2FA2C5F52000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44E5479-A32C-42E1-976A-5E4123F95ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commande_3" sheetId="1" r:id="rId1"/>
@@ -492,14 +492,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -786,7 +786,7 @@
   <dimension ref="A1:I974"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +857,7 @@
         <f>D3*E3</f>
         <v>16.059999999999999</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="43" t="s">
         <v>17</v>
       </c>
     </row>
@@ -877,9 +877,7 @@
       <c r="E4" s="9">
         <v>2</v>
       </c>
-      <c r="F4" s="34">
-        <v>20</v>
-      </c>
+      <c r="F4" s="34"/>
       <c r="G4" s="24">
         <f t="shared" ref="G4" si="0">D4*E4</f>
         <v>29.68</v>
@@ -956,7 +954,7 @@
       </c>
       <c r="F8" s="28">
         <f>SUM(F3:F4)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G8" s="25">
         <f>SUM(G3:G7)</f>
@@ -983,7 +981,7 @@
       </c>
       <c r="F11" s="16">
         <f>F8+G8</f>
-        <v>104.52999999999999</v>
+        <v>84.529999999999987</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -5329,7 +5327,7 @@
       <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
+      <c r="A3" s="44">
         <v>2</v>
       </c>
       <c r="B3" s="11"/>
@@ -5356,7 +5354,7 @@
       <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
         <v>19</v>
